--- a/planning/assets/formatsXlsx/Planeacion_Maquinas.xlsx
+++ b/planning/assets/formatsXlsx/Planeacion_Maquinas.xlsx
@@ -13,6 +13,196 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Autor</author>
+  </authors>
+  <commentList>
+    <comment ref="F1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Las fechas pueden ir con cualquier orden, pero deben ir con:  (-)
+ejemplo: (22-08-2022)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="G1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Las fechas pueden ir con cualquier orden, pero deben ir con: (-)
+ejemplo: (22-08-2022)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="H1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Las fechas pueden ir con cualquier orden, pero deben ir con: (-)
+ejemplo: (22-08-2022)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="I1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Las fechas pueden ir con cualquier orden, pero deben ir con: (-)
+ejemplo: (22-08-2022)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="J1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Las fechas pueden ir con cualquier orden, pero deben ir con: (-)
+ejemplo: (22-08-2022)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="K1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Las fechas pueden ir con cualquier orden, pero deben ir con: (-)
+ejemplo: (22-08-2022)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="L1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Las fechas pueden ir con cualquier orden, pero deben ir con: (-)
+ejemplo: (22-08-2022)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="M1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Las fechas pueden ir con cualquier orden, pero deben ir con: (-)
+ejemplo: (22-08-2022)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="N1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Las fechas pueden ir con cualquier orden, pero deben ir con: (-)
+ejemplo: (22-08-2022)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="O1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Las fechas pueden ir con cualquier orden, pero deben ir con: (-)
+ejemplo: (22-08-2022)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="P1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Las fechas pueden ir con cualquier orden, pero deben ir con: (-)
+ejemplo: (22-08-2022)</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="Q1" authorId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="8"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Las fechas pueden ir con cualquier orden, pero deben ir con: (-)
+ejemplo: (22-08-2022)</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
@@ -71,7 +261,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -105,6 +295,13 @@
       <name val="Comic Sans MS"/>
       <family val="4"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -132,9 +329,6 @@
   </cellStyleXfs>
   <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -145,6 +339,9 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
@@ -153,6 +350,276 @@
   <dxfs count="19">
     <dxf>
       <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <strike val="0"/>
+        <outline val="0"/>
+        <shadow val="0"/>
+        <u val="none"/>
+        <vertAlign val="baseline"/>
+        <sz val="12"/>
+        <color theme="1"/>
+        <name val="Arial"/>
+        <scheme val="none"/>
+      </font>
+      <numFmt numFmtId="30" formatCode="@"/>
+      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
         <b/>
         <strike val="0"/>
         <outline val="0"/>
@@ -160,258 +627,6 @@
         <u val="none"/>
         <vertAlign val="baseline"/>
         <sz val="14"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
-        <color theme="1"/>
-        <name val="Arial"/>
-        <scheme val="none"/>
-      </font>
-      <alignment horizontal="center" vertical="center" textRotation="0" wrapText="0" indent="0" relativeIndent="255" justifyLastLine="0" shrinkToFit="0" mergeCell="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <strike val="0"/>
-        <outline val="0"/>
-        <shadow val="0"/>
-        <u val="none"/>
-        <vertAlign val="baseline"/>
-        <sz val="12"/>
         <color theme="1"/>
         <name val="Arial"/>
         <scheme val="none"/>
@@ -424,25 +639,25 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:Q7" totalsRowShown="0" headerRowDxfId="0" dataDxfId="1">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:Q7" totalsRowShown="0" headerRowDxfId="18" dataDxfId="17">
   <tableColumns count="17">
-    <tableColumn id="1" name="maquina" dataDxfId="18"/>
-    <tableColumn id="2" name="no_trabajadores" dataDxfId="17"/>
-    <tableColumn id="3" name="hora_dia" dataDxfId="16"/>
-    <tableColumn id="4" name="hora_inicio" dataDxfId="15"/>
-    <tableColumn id="5" name="hora_fin" dataDxfId="14"/>
-    <tableColumn id="6" name="enero" dataDxfId="13"/>
-    <tableColumn id="7" name="febrero" dataDxfId="12"/>
-    <tableColumn id="8" name="marzo" dataDxfId="11"/>
-    <tableColumn id="9" name="abril" dataDxfId="10"/>
-    <tableColumn id="10" name="mayo" dataDxfId="9"/>
-    <tableColumn id="11" name="junio" dataDxfId="8"/>
-    <tableColumn id="12" name="julio" dataDxfId="7"/>
-    <tableColumn id="13" name="agosto" dataDxfId="6"/>
-    <tableColumn id="14" name="septiembre" dataDxfId="5"/>
-    <tableColumn id="15" name="octubre" dataDxfId="4"/>
-    <tableColumn id="16" name="noviembre" dataDxfId="3"/>
-    <tableColumn id="17" name="diciembre" dataDxfId="2"/>
+    <tableColumn id="1" name="maquina" dataDxfId="16"/>
+    <tableColumn id="2" name="no_trabajadores" dataDxfId="15"/>
+    <tableColumn id="3" name="hora_dia" dataDxfId="14"/>
+    <tableColumn id="4" name="hora_inicio" dataDxfId="13"/>
+    <tableColumn id="5" name="hora_fin" dataDxfId="12"/>
+    <tableColumn id="6" name="enero" dataDxfId="11"/>
+    <tableColumn id="7" name="febrero" dataDxfId="10"/>
+    <tableColumn id="8" name="marzo" dataDxfId="9"/>
+    <tableColumn id="9" name="abril" dataDxfId="8"/>
+    <tableColumn id="10" name="mayo" dataDxfId="7"/>
+    <tableColumn id="11" name="junio" dataDxfId="6"/>
+    <tableColumn id="12" name="julio" dataDxfId="5"/>
+    <tableColumn id="13" name="agosto" dataDxfId="4"/>
+    <tableColumn id="14" name="septiembre" dataDxfId="3"/>
+    <tableColumn id="15" name="octubre" dataDxfId="2"/>
+    <tableColumn id="16" name="noviembre" dataDxfId="1"/>
+    <tableColumn id="17" name="diciembre" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -735,8 +950,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:Q1"/>
+    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="R12" sqref="R12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -753,229 +968,230 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:17" ht="18">
-      <c r="A1" s="2" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="2" t="s">
+      <c r="D1" s="1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="2" t="s">
+      <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="2" t="s">
+      <c r="F1" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" s="2" t="s">
+      <c r="G1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="H1" s="2" t="s">
+      <c r="H1" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="I1" s="2" t="s">
+      <c r="I1" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="J1" s="2" t="s">
+      <c r="J1" s="1" t="s">
         <v>9</v>
       </c>
-      <c r="K1" s="2" t="s">
+      <c r="K1" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L1" s="2" t="s">
+      <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="M1" s="2" t="s">
+      <c r="M1" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="N1" s="2" t="s">
+      <c r="N1" s="1" t="s">
         <v>13</v>
       </c>
-      <c r="O1" s="2" t="s">
+      <c r="O1" s="1" t="s">
         <v>14</v>
       </c>
-      <c r="P1" s="2" t="s">
+      <c r="P1" s="1" t="s">
         <v>15</v>
       </c>
-      <c r="Q1" s="2" t="s">
+      <c r="Q1" s="1" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="2" spans="1:17">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-      <c r="D2" s="1"/>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="L2" s="1"/>
-      <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
-      <c r="O2" s="1"/>
-      <c r="P2" s="1"/>
-      <c r="Q2" s="1"/>
+      <c r="A2" s="5"/>
+      <c r="B2" s="5"/>
+      <c r="C2" s="5"/>
+      <c r="D2" s="5"/>
+      <c r="E2" s="5"/>
+      <c r="F2" s="5"/>
+      <c r="G2" s="5"/>
+      <c r="H2" s="5"/>
+      <c r="I2" s="5"/>
+      <c r="J2" s="5"/>
+      <c r="K2" s="5"/>
+      <c r="L2" s="5"/>
+      <c r="M2" s="5"/>
+      <c r="N2" s="5"/>
+      <c r="O2" s="5"/>
+      <c r="P2" s="5"/>
+      <c r="Q2" s="5"/>
     </row>
     <row r="3" spans="1:17">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-      <c r="D3" s="1"/>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="1"/>
-      <c r="I3" s="1"/>
-      <c r="J3" s="1"/>
-      <c r="K3" s="1"/>
-      <c r="L3" s="1"/>
-      <c r="M3" s="1"/>
-      <c r="N3" s="1"/>
-      <c r="O3" s="1"/>
-      <c r="P3" s="1"/>
-      <c r="Q3" s="1"/>
+      <c r="A3" s="5"/>
+      <c r="B3" s="5"/>
+      <c r="C3" s="5"/>
+      <c r="D3" s="5"/>
+      <c r="E3" s="5"/>
+      <c r="F3" s="5"/>
+      <c r="G3" s="5"/>
+      <c r="H3" s="5"/>
+      <c r="I3" s="5"/>
+      <c r="J3" s="5"/>
+      <c r="K3" s="5"/>
+      <c r="L3" s="5"/>
+      <c r="M3" s="5"/>
+      <c r="N3" s="5"/>
+      <c r="O3" s="5"/>
+      <c r="P3" s="5"/>
+      <c r="Q3" s="5"/>
     </row>
     <row r="4" spans="1:17">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-      <c r="D4" s="1"/>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="1"/>
-      <c r="H4" s="1"/>
-      <c r="I4" s="1"/>
-      <c r="J4" s="1"/>
-      <c r="K4" s="1"/>
-      <c r="L4" s="1"/>
-      <c r="M4" s="1"/>
-      <c r="N4" s="1"/>
-      <c r="O4" s="1"/>
-      <c r="P4" s="1"/>
-      <c r="Q4" s="1"/>
+      <c r="A4" s="5"/>
+      <c r="B4" s="5"/>
+      <c r="C4" s="5"/>
+      <c r="D4" s="5"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="5"/>
+      <c r="G4" s="5"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="5"/>
+      <c r="J4" s="5"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="5"/>
+      <c r="M4" s="5"/>
+      <c r="N4" s="5"/>
+      <c r="O4" s="5"/>
+      <c r="P4" s="5"/>
+      <c r="Q4" s="5"/>
     </row>
     <row r="5" spans="1:17">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-      <c r="D5" s="1"/>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="1"/>
-      <c r="I5" s="1"/>
-      <c r="J5" s="1"/>
-      <c r="K5" s="1"/>
-      <c r="L5" s="1"/>
-      <c r="M5" s="1"/>
-      <c r="N5" s="1"/>
-      <c r="O5" s="1"/>
-      <c r="P5" s="1"/>
-      <c r="Q5" s="1"/>
+      <c r="A5" s="5"/>
+      <c r="B5" s="5"/>
+      <c r="C5" s="5"/>
+      <c r="D5" s="5"/>
+      <c r="E5" s="5"/>
+      <c r="F5" s="5"/>
+      <c r="G5" s="5"/>
+      <c r="H5" s="5"/>
+      <c r="I5" s="5"/>
+      <c r="J5" s="5"/>
+      <c r="K5" s="5"/>
+      <c r="L5" s="5"/>
+      <c r="M5" s="5"/>
+      <c r="N5" s="5"/>
+      <c r="O5" s="5"/>
+      <c r="P5" s="5"/>
+      <c r="Q5" s="5"/>
     </row>
     <row r="6" spans="1:17">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-      <c r="D6" s="1"/>
-      <c r="E6" s="1"/>
-      <c r="F6" s="1"/>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
+      <c r="A6" s="5"/>
+      <c r="B6" s="5"/>
+      <c r="C6" s="5"/>
+      <c r="D6" s="5"/>
+      <c r="E6" s="5"/>
+      <c r="F6" s="5"/>
+      <c r="G6" s="5"/>
+      <c r="H6" s="5"/>
+      <c r="I6" s="5"/>
+      <c r="J6" s="5"/>
+      <c r="K6" s="5"/>
+      <c r="L6" s="5"/>
+      <c r="M6" s="5"/>
+      <c r="N6" s="5"/>
+      <c r="O6" s="5"/>
+      <c r="P6" s="5"/>
+      <c r="Q6" s="5"/>
     </row>
     <row r="7" spans="1:17">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
+      <c r="A7" s="5"/>
+      <c r="B7" s="5"/>
+      <c r="C7" s="5"/>
+      <c r="D7" s="5"/>
+      <c r="E7" s="5"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="5"/>
+      <c r="H7" s="5"/>
+      <c r="I7" s="5"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="5"/>
+      <c r="L7" s="5"/>
+      <c r="M7" s="5"/>
+      <c r="N7" s="5"/>
+      <c r="O7" s="5"/>
+      <c r="P7" s="5"/>
+      <c r="Q7" s="5"/>
     </row>
     <row r="20" spans="4:6" ht="21">
-      <c r="D20" s="4"/>
-      <c r="E20" s="5"/>
-      <c r="F20" s="5"/>
+      <c r="D20" s="3"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
     </row>
     <row r="21" spans="4:6" ht="21">
-      <c r="D21" s="4"/>
-      <c r="E21" s="5"/>
+      <c r="D21" s="3"/>
+      <c r="E21" s="4"/>
     </row>
     <row r="22" spans="4:6" ht="21">
-      <c r="D22" s="4"/>
-      <c r="E22" s="5"/>
-      <c r="F22" s="3"/>
+      <c r="D22" s="3"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2"/>
     </row>
     <row r="23" spans="4:6" ht="21">
-      <c r="D23" s="4"/>
-      <c r="E23" s="5"/>
-      <c r="F23" s="3"/>
+      <c r="D23" s="3"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="2"/>
     </row>
     <row r="24" spans="4:6" ht="21">
-      <c r="D24" s="4"/>
-      <c r="E24" s="5"/>
-      <c r="F24" s="3"/>
+      <c r="D24" s="3"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="2"/>
     </row>
     <row r="25" spans="4:6" ht="21">
-      <c r="D25" s="4"/>
-      <c r="E25" s="5"/>
-      <c r="F25" s="3"/>
+      <c r="D25" s="3"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="2"/>
     </row>
     <row r="26" spans="4:6" ht="21">
-      <c r="D26" s="4"/>
-      <c r="E26" s="5"/>
-      <c r="F26" s="3"/>
+      <c r="D26" s="3"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="2"/>
     </row>
     <row r="27" spans="4:6" ht="21">
-      <c r="D27" s="4"/>
-      <c r="E27" s="5"/>
-      <c r="F27" s="3"/>
+      <c r="D27" s="3"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="2"/>
     </row>
     <row r="28" spans="4:6" ht="21">
-      <c r="D28" s="4"/>
-      <c r="E28" s="5"/>
-      <c r="F28" s="3"/>
+      <c r="D28" s="3"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="2"/>
     </row>
     <row r="29" spans="4:6" ht="21">
-      <c r="D29" s="4"/>
-      <c r="E29" s="5"/>
-      <c r="F29" s="3"/>
+      <c r="D29" s="3"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="2"/>
     </row>
     <row r="30" spans="4:6">
-      <c r="D30" s="3"/>
+      <c r="D30" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
--- a/planning/assets/formatsXlsx/Planeacion_Maquinas.xlsx
+++ b/planning/assets/formatsXlsx/Planeacion_Maquinas.xlsx
@@ -13,196 +13,6 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>Autor</author>
-  </authors>
-  <commentList>
-    <comment ref="F1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Las fechas pueden ir con cualquier orden, pero deben ir con:  (-)
-ejemplo: (22-08-2022)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="G1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Las fechas pueden ir con cualquier orden, pero deben ir con: (-)
-ejemplo: (22-08-2022)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="H1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Las fechas pueden ir con cualquier orden, pero deben ir con: (-)
-ejemplo: (22-08-2022)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="I1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Las fechas pueden ir con cualquier orden, pero deben ir con: (-)
-ejemplo: (22-08-2022)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="J1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Las fechas pueden ir con cualquier orden, pero deben ir con: (-)
-ejemplo: (22-08-2022)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="K1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Las fechas pueden ir con cualquier orden, pero deben ir con: (-)
-ejemplo: (22-08-2022)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="L1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Las fechas pueden ir con cualquier orden, pero deben ir con: (-)
-ejemplo: (22-08-2022)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="M1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Las fechas pueden ir con cualquier orden, pero deben ir con: (-)
-ejemplo: (22-08-2022)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="N1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Las fechas pueden ir con cualquier orden, pero deben ir con: (-)
-ejemplo: (22-08-2022)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="O1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Las fechas pueden ir con cualquier orden, pero deben ir con: (-)
-ejemplo: (22-08-2022)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="P1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Las fechas pueden ir con cualquier orden, pero deben ir con: (-)
-ejemplo: (22-08-2022)</t>
-        </r>
-      </text>
-    </comment>
-    <comment ref="Q1" authorId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="8"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <family val="2"/>
-          </rPr>
-          <t>Las fechas pueden ir con cualquier orden, pero deben ir con: (-)
-ejemplo: (22-08-2022)</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
@@ -261,7 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="6">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -294,13 +104,6 @@
       <color rgb="FF0000FF"/>
       <name val="Comic Sans MS"/>
       <family val="4"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="8"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <family val="2"/>
     </font>
   </fonts>
   <fills count="2">
@@ -950,8 +753,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:Q30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="D1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="R12" sqref="R12"/>
+    <sheetView tabSelected="1" topLeftCell="C1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="J16" sqref="J16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15"/>
@@ -1189,9 +992,8 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
 </file>